--- a/uploads/2021_Schools_Template.xlsx
+++ b/uploads/2021_Schools_Template.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\real data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\demo data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE2D700-51BE-4075-9E8B-9736816BB29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528CE2E-89C5-411D-8DA8-5723D908E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School list" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>School ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Low Decile</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Agreement signed</t>
   </si>
   <si>
@@ -146,75 +143,6 @@
     <t>Te Waka Unua School</t>
   </si>
   <si>
-    <t>Banks Ave School</t>
-  </si>
-  <si>
-    <t>Bromley School</t>
-  </si>
-  <si>
-    <t>Haeata Community Campus</t>
-  </si>
-  <si>
-    <t>Ilam Primary School</t>
-  </si>
-  <si>
-    <t>Jean Seabrook Memorial School</t>
-  </si>
-  <si>
-    <t>Linwood College</t>
-  </si>
-  <si>
-    <t>Mairehau Primay School</t>
-  </si>
-  <si>
-    <t>Ngāi Te Ruahikihiki ki Taumutu</t>
-  </si>
-  <si>
-    <t>Te Matauru Primary</t>
-  </si>
-  <si>
-    <t>Whītau School</t>
-  </si>
-  <si>
-    <t>Tuahiwi School</t>
-  </si>
-  <si>
-    <t>West Melton School</t>
-  </si>
-  <si>
-    <t>Te Kura Kaupapa Māori o te Whānau Tahi</t>
-  </si>
-  <si>
-    <t>Oxford Area school</t>
-  </si>
-  <si>
-    <t>Papanui Primary</t>
-  </si>
-  <si>
-    <t>Tai Tapu School</t>
-  </si>
-  <si>
-    <t>New Brighton Catholic School</t>
-  </si>
-  <si>
-    <t>Rāpaki</t>
-  </si>
-  <si>
-    <t>Springston School</t>
-  </si>
-  <si>
-    <t>Ōpāwa School</t>
-  </si>
-  <si>
-    <t>Burnside Primary School</t>
-  </si>
-  <si>
-    <t>Waitākiri Primary School</t>
-  </si>
-  <si>
-    <t>Wairewa</t>
-  </si>
-  <si>
     <t>Selwyn</t>
   </si>
   <si>
@@ -227,30 +155,9 @@
     <t>Juanita</t>
   </si>
   <si>
-    <t>Waimakariri</t>
-  </si>
-  <si>
     <t>Adrian</t>
   </si>
   <si>
-    <t>elise@oxford.school.nz; meghan@oxford.school.nz</t>
-  </si>
-  <si>
-    <t>kim.wilson@taitapu.school.nz</t>
-  </si>
-  <si>
-    <t>nick@nbc.school.nz</t>
-  </si>
-  <si>
-    <t>wendy.hamlin@springston.school.nz</t>
-  </si>
-  <si>
-    <t>shevaun@opawa.school.nz</t>
-  </si>
-  <si>
-    <t>nic.rickard@burnsideprimary.school.nz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Donna Frame </t>
   </si>
   <si>
@@ -275,48 +182,6 @@
     <t xml:space="preserve">Susie Ward </t>
   </si>
   <si>
-    <t xml:space="preserve">Raewyn Himona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belinda Kennedy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Gillies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte Cottrell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda Abel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brenda Kingi-Booth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Richmond </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Turner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crisanna Nel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeanette Neal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharlene Teirney </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranda Sheppard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demi Tikao Coulter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wendy du Toit </t>
-  </si>
-  <si>
     <t>donna.frame@ararira.school.nz</t>
   </si>
   <si>
@@ -344,57 +209,6 @@
     <t>jthompson@banksave.school.nz</t>
   </si>
   <si>
-    <t>raewynhimona@haeata.school.nz</t>
-  </si>
-  <si>
-    <t>belinda.kennedy@ilam.school.nz</t>
-  </si>
-  <si>
-    <t>maryg@seabrookmckenzie.net</t>
-  </si>
-  <si>
-    <t>cco@linwoodcollege.school.nz</t>
-  </si>
-  <si>
-    <t>amandaa@mairehau.net</t>
-  </si>
-  <si>
-    <t>Brenda.Kingi-Booth@ngaitahu.iwi.nz</t>
-  </si>
-  <si>
-    <t>andy.richmond@tematauru.school.nz</t>
-  </si>
-  <si>
-    <t>sam@whitau.school.nz</t>
-  </si>
-  <si>
-    <t>crisanna@tuahiwi.school.nz</t>
-  </si>
-  <si>
-    <t>jeanette.neal@westmelton.school.nz</t>
-  </si>
-  <si>
-    <t>sharlene@whanau-tahi.school.nz</t>
-  </si>
-  <si>
-    <t>miranda.sheppard@papanuiprimary.school.nz</t>
-  </si>
-  <si>
-    <t>Demi.TikaoCoulter@ngaitahu.iwi.nz</t>
-  </si>
-  <si>
-    <t>wendy.dutoit@waitakiri.school.nz</t>
-  </si>
-  <si>
-    <t>Dani.Panirau@lincoln.ac.nz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindi Newth , Catherine Mackintosh </t>
-  </si>
-  <si>
-    <t>lindi.newth@bromley.school.nz;catherine.mackintosh@bromley.school.nz</t>
-  </si>
-  <si>
     <t>15-Mar</t>
   </si>
   <si>
@@ -491,9 +305,6 @@
     <t>30-Apr</t>
   </si>
   <si>
-    <t>5-May</t>
-  </si>
-  <si>
     <t>12-May</t>
   </si>
   <si>
@@ -524,37 +335,10 @@
     <t>Waiting on signed Agreement Form, all docs have been sent</t>
   </si>
   <si>
-    <t>Meeting completed, waiting on confirmation from exec that programme will continue. E-mail sent 29-Apr</t>
-  </si>
-  <si>
-    <t>TWT want some time to prepare. Check in: June 4.</t>
-  </si>
-  <si>
-    <t>Agreement signed. All forms sent. Launch booked in</t>
-  </si>
-  <si>
-    <t>Agreement form signed</t>
-  </si>
-  <si>
-    <t>Demi will send final sign ups soon, will support Ripeka at Te Pā.</t>
-  </si>
-  <si>
-    <t>All forms sent. Waiting on response.</t>
-  </si>
-  <si>
-    <t>Waiting on consent forms. Set up passport presentation.</t>
-  </si>
-  <si>
-    <t>1 consent required</t>
-  </si>
-  <si>
-    <t>Sent paperwork. Waiting on response.</t>
-  </si>
-  <si>
     <t>Jan Thompson</t>
   </si>
   <si>
-    <t xml:space="preserve">Panirau Dani </t>
+    <t xml:space="preserve">Example School </t>
   </si>
 </sst>
 </file>
@@ -564,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,22 +373,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -723,21 +491,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFD8D8D8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD8D8D8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -766,27 +519,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD8D8D8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,31 +567,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,13 +582,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -882,17 +594,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V266"/>
+  <dimension ref="A1:V239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,24 +1028,24 @@
         <v>26</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -1350,14 +1058,16 @@
         <v>2021</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="26">
+      <c r="S2" s="5">
+        <v>5</v>
+      </c>
+      <c r="T2" s="18">
         <v>40</v>
       </c>
-      <c r="U2" s="30">
+      <c r="U2" s="22">
         <v>25</v>
       </c>
-      <c r="V2" s="30">
+      <c r="V2" s="22">
         <v>25</v>
       </c>
     </row>
@@ -1366,62 +1076,64 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="4">
         <v>2021</v>
       </c>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="28">
+      <c r="S3" s="5">
+        <v>8</v>
+      </c>
+      <c r="T3" s="20">
         <v>30</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="23">
         <v>39</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="23">
         <v>39</v>
       </c>
     </row>
@@ -1430,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>25</v>
@@ -1445,45 +1157,47 @@
         <v>26</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>162</v>
+        <v>98</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="Q4" s="4">
         <v>2021</v>
       </c>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="28">
+      <c r="S4" s="5">
+        <v>9</v>
+      </c>
+      <c r="T4" s="20">
         <v>25</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="23">
         <v>37</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="23">
         <v>37</v>
       </c>
     </row>
@@ -1492,60 +1206,62 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="4">
         <v>2021</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="28">
+      <c r="S5" s="5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="20">
         <v>50</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="23">
         <v>45</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="23">
         <v>45</v>
       </c>
     </row>
@@ -1554,62 +1270,64 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="4">
         <v>2021</v>
       </c>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="28">
+      <c r="S6" s="5">
+        <v>6</v>
+      </c>
+      <c r="T6" s="20">
         <v>35</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="23">
         <v>47</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="23">
         <v>47</v>
       </c>
     </row>
@@ -1618,40 +1336,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -1662,14 +1380,16 @@
         <v>2021</v>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="28">
+      <c r="S7" s="5">
+        <v>3</v>
+      </c>
+      <c r="T7" s="20">
         <v>60</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="23">
         <v>53</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="23">
         <v>53</v>
       </c>
     </row>
@@ -1693,47 +1413,49 @@
         <v>26</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="4">
         <v>2021</v>
       </c>
       <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="28">
+      <c r="S8" s="5">
+        <v>3</v>
+      </c>
+      <c r="T8" s="20">
         <v>40</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="23">
         <v>40</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="23">
         <v>40</v>
       </c>
     </row>
@@ -1742,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>23</v>
@@ -1751,53 +1473,55 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="4">
         <v>2021</v>
       </c>
       <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="28">
+      <c r="S9" s="5">
+        <v>5</v>
+      </c>
+      <c r="T9" s="20">
         <v>30</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="23">
         <v>32</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="23">
         <v>32</v>
       </c>
     </row>
@@ -1806,7 +1530,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>23</v>
@@ -1821,27 +1545,27 @@
         <v>26</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="4" t="s">
@@ -1852,14 +1576,16 @@
         <v>2021</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="28">
+      <c r="S10" s="5">
+        <v>7</v>
+      </c>
+      <c r="T10" s="20">
         <v>35</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="23">
         <v>34</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="23">
         <v>34</v>
       </c>
     </row>
@@ -1868,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>30</v>
@@ -1883,27 +1609,27 @@
         <v>26</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="4" t="s">
@@ -1914,1311 +1640,237 @@
         <v>2021</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="28">
+      <c r="S11" s="5">
+        <v>2</v>
+      </c>
+      <c r="T11" s="20">
         <v>45</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="23">
         <v>46</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="23">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="4">
-        <v>2021</v>
-      </c>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="28">
-        <v>60</v>
-      </c>
-      <c r="U12" s="31">
-        <v>51</v>
-      </c>
-      <c r="V12" s="31">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="28">
-        <v>40</v>
-      </c>
-      <c r="U13" s="31">
-        <v>49</v>
-      </c>
-      <c r="V13" s="31">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="28">
-        <v>30</v>
-      </c>
-      <c r="U14" s="31">
-        <v>36</v>
-      </c>
-      <c r="V14" s="31">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="28">
-        <v>15</v>
-      </c>
-      <c r="U15" s="31">
-        <v>4</v>
-      </c>
-      <c r="V15" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="28">
-        <v>30</v>
-      </c>
-      <c r="U16" s="31">
-        <v>16</v>
-      </c>
-      <c r="V16" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="28">
-        <v>30</v>
-      </c>
-      <c r="U17" s="31">
-        <v>31</v>
-      </c>
-      <c r="V17" s="31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="P18" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="28">
-        <v>30</v>
-      </c>
-      <c r="U18" s="29">
-        <v>20</v>
-      </c>
-      <c r="V18" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="28">
-        <v>40</v>
-      </c>
-      <c r="U19" s="31">
-        <v>16</v>
-      </c>
-      <c r="V19" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="28">
-        <v>30</v>
-      </c>
-      <c r="U20" s="31">
-        <v>20</v>
-      </c>
-      <c r="V20" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="28">
-        <v>20</v>
-      </c>
-      <c r="U21" s="29">
-        <v>20</v>
-      </c>
-      <c r="V21" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="28">
-        <v>20</v>
-      </c>
-      <c r="U22" s="31">
-        <v>28</v>
-      </c>
-      <c r="V22" s="31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="15"/>
-      <c r="N23" s="28"/>
-      <c r="P23" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="28">
-        <v>20</v>
-      </c>
-      <c r="U23" s="29">
-        <v>20</v>
-      </c>
-      <c r="V23" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="28">
-        <v>20</v>
-      </c>
-      <c r="U24" s="32">
-        <v>15</v>
-      </c>
-      <c r="V24" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="28">
-        <v>20</v>
-      </c>
-      <c r="U25" s="31">
-        <v>30</v>
-      </c>
-      <c r="V25" s="31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="28">
-        <v>20</v>
-      </c>
-      <c r="U26" s="31">
-        <v>28</v>
-      </c>
-      <c r="V26" s="31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="28">
-        <v>20</v>
-      </c>
-      <c r="U27" s="31">
-        <v>31</v>
-      </c>
-      <c r="V27" s="31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="28">
-        <v>20</v>
-      </c>
-      <c r="U28" s="29">
-        <v>11</v>
-      </c>
-      <c r="V28" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="28">
-        <v>20</v>
-      </c>
-      <c r="U29" s="31">
-        <v>22</v>
-      </c>
-      <c r="V29" s="31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="P30" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="28">
-        <v>20</v>
-      </c>
-      <c r="U30" s="29">
-        <v>20</v>
-      </c>
-      <c r="V30" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="28">
-        <v>20</v>
-      </c>
-      <c r="U31" s="31">
-        <v>25</v>
-      </c>
-      <c r="V31" s="31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="28">
-        <v>20</v>
-      </c>
-      <c r="U32" s="31">
-        <v>32</v>
-      </c>
-      <c r="V32" s="31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="P33" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>2021</v>
-      </c>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="28">
-        <v>20</v>
-      </c>
-      <c r="U33" s="29"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4413,8 +3065,6 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
       <c r="R153" s="5"/>
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
@@ -4423,8 +3073,6 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
       <c r="R154" s="5"/>
       <c r="S154" s="5"/>
       <c r="T154" s="5"/>
@@ -4433,8 +3081,6 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
       <c r="R155" s="5"/>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
@@ -4443,8 +3089,6 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
       <c r="R156" s="5"/>
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
@@ -4453,8 +3097,6 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
       <c r="R157" s="5"/>
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
@@ -4463,8 +3105,6 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
       <c r="R158" s="5"/>
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
@@ -4473,8 +3113,6 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
       <c r="R159" s="5"/>
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
@@ -4483,8 +3121,6 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
       <c r="R160" s="5"/>
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
@@ -4493,8 +3129,6 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
       <c r="R161" s="5"/>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
@@ -4503,8 +3137,6 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
       <c r="R162" s="5"/>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
@@ -4513,8 +3145,6 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
       <c r="R163" s="5"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
@@ -4523,8 +3153,6 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
       <c r="R164" s="5"/>
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
@@ -4533,8 +3161,6 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
@@ -4543,8 +3169,6 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
@@ -4553,8 +3177,6 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
       <c r="R167" s="5"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
@@ -4563,8 +3185,6 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
       <c r="R168" s="5"/>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
@@ -4573,8 +3193,6 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
       <c r="R169" s="5"/>
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
@@ -4583,8 +3201,6 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
       <c r="R170" s="5"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
@@ -4593,8 +3209,6 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
       <c r="R171" s="5"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
@@ -4603,8 +3217,6 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
@@ -4613,8 +3225,6 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
@@ -4623,8 +3233,6 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
@@ -4633,8 +3241,6 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
       <c r="R175" s="5"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
@@ -4643,8 +3249,6 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
       <c r="R176" s="5"/>
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
@@ -4653,8 +3257,6 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
       <c r="R177" s="5"/>
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
@@ -4663,8 +3265,6 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
       <c r="R178" s="5"/>
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
@@ -4673,8 +3273,6 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
       <c r="R179" s="5"/>
       <c r="S179" s="5"/>
       <c r="T179" s="5"/>
@@ -5161,233 +3759,9 @@
       <c r="U239" s="5"/>
       <c r="V239" s="5"/>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5"/>
-      <c r="V240" s="5"/>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
-      <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A242" s="5"/>
-      <c r="R242" s="5"/>
-      <c r="S242" s="5"/>
-      <c r="T242" s="5"/>
-      <c r="U242" s="5"/>
-      <c r="V242" s="5"/>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A243" s="5"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
-      <c r="U243" s="5"/>
-      <c r="V243" s="5"/>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A244" s="5"/>
-      <c r="R244" s="5"/>
-      <c r="S244" s="5"/>
-      <c r="T244" s="5"/>
-      <c r="U244" s="5"/>
-      <c r="V244" s="5"/>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5"/>
-      <c r="V245" s="5"/>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5"/>
-      <c r="V246" s="5"/>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A247" s="5"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="5"/>
-      <c r="T247" s="5"/>
-      <c r="U247" s="5"/>
-      <c r="V247" s="5"/>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A248" s="5"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
-      <c r="U248" s="5"/>
-      <c r="V248" s="5"/>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A249" s="5"/>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5"/>
-      <c r="V249" s="5"/>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
-      <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A251" s="5"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
-      <c r="U251" s="5"/>
-      <c r="V251" s="5"/>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A252" s="5"/>
-      <c r="R252" s="5"/>
-      <c r="S252" s="5"/>
-      <c r="T252" s="5"/>
-      <c r="U252" s="5"/>
-      <c r="V252" s="5"/>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A253" s="5"/>
-      <c r="R253" s="5"/>
-      <c r="S253" s="5"/>
-      <c r="T253" s="5"/>
-      <c r="U253" s="5"/>
-      <c r="V253" s="5"/>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
-      <c r="U260" s="5"/>
-      <c r="V260" s="5"/>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A261" s="5"/>
-      <c r="R261" s="5"/>
-      <c r="S261" s="5"/>
-      <c r="T261" s="5"/>
-      <c r="U261" s="5"/>
-      <c r="V261" s="5"/>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A262" s="5"/>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5"/>
-      <c r="V265" s="5"/>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
-      <c r="U266" s="5"/>
-      <c r="V266" s="5"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" display="mailto:andy.richmond@tematauru.school.nz" xr:uid="{1A1810DF-8FAE-4E97-8247-1269E3266C42}"/>
-    <hyperlink ref="H26" r:id="rId2" display="mailto:kim.wilson@taitapu.school.nz" xr:uid="{512979F9-1464-479A-A0E0-6982E557A739}"/>
-    <hyperlink ref="H27" r:id="rId3" display="mailto:nick@nbc.school.nz" xr:uid="{39E505A9-52C4-4BCC-B23E-1B45B2E3C253}"/>
-    <hyperlink ref="H30" r:id="rId4" display="mailto:shevaun@opawa.school.nz" xr:uid="{0AB4E7ED-214D-41F4-AC82-A521C6CAB659}"/>
-    <hyperlink ref="H31" r:id="rId5" display="mailto:nic.rickard@burnsideprimary.school.nz" xr:uid="{B1EAD589-7F0E-441A-9D41-F2B92790DC17}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{359E1374-785C-4DA7-9679-E1DFA153E5AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5407,391 +3781,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="27">
         <v>44270</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="27">
+        <v>44278</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="27">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" s="27">
+        <v>44280</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="27">
+        <v>44274</v>
+      </c>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="27">
+        <v>44271</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="27">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="27">
+        <v>44279</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="27">
+        <v>44256</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="27">
+        <v>44302</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="36">
-        <v>44278</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="36">
-        <v>44243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="B10" s="27">
         <v>44280</v>
       </c>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="36">
-        <v>44274</v>
-      </c>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="36">
-        <v>44271</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="36">
-        <v>44245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44259</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="27">
+        <v>44322</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="27">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="27">
         <v>44279</v>
       </c>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="36">
-        <v>44256</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="36">
-        <v>44302</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="36">
-        <v>44280</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="36">
-        <v>44259</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="36">
-        <v>44322</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="36">
+      <c r="F13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="F14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="27">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44295</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="27">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44265</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="F17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44285</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="27">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="F19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="27">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="F20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="27">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="27">
+        <v>44272</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="27">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="F22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="27">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="27">
+        <v>44297</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="27">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="27">
         <v>44299</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="36">
-        <v>44279</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="F14" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="36">
-        <v>44298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="36">
-        <v>44295</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="36">
-        <v>44237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="36">
-        <v>44265</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="F17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="36">
-        <v>44285</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="36">
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="F19" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="36">
-        <v>44293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="F20" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="36">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="36">
-        <v>44272</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="36">
-        <v>44257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="F22" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="36">
-        <v>44334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="36">
-        <v>44297</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="36">
-        <v>44285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="36">
-        <v>44299</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="36">
+      <c r="F24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="27">
         <v>44264</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="36">
+      <c r="A25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="27">
         <v>44276</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="36">
+      <c r="F25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="27">
         <v>44251</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="36">
+      <c r="A26" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="27">
         <v>44350</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="36">
+      <c r="F26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="27">
         <v>44342</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="36">
+      <c r="A27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="27">
         <v>44316</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>65</v>
+      <c r="F27" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="36">
+      <c r="A28" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="27">
         <v>44344</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="36">
+      <c r="F28" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="27">
         <v>44328</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="F29" s="29" t="s">
-        <v>65</v>
+      <c r="A29" s="25"/>
+      <c r="F29" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="F30" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="36">
+      <c r="A30" s="25"/>
+      <c r="F30" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="27">
         <v>44328</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="36">
+      <c r="A31" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="27">
         <v>44349</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="36">
+      <c r="F31" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="27">
         <v>44340</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
+      <c r="A32" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
